--- a/relatorios/snapshot-2025-04.xlsx
+++ b/relatorios/snapshot-2025-04.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="5">
   <si>
     <t>Data</t>
   </si>
@@ -402,7 +402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D30"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
@@ -430,7 +430,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>12111</v>
+        <v>12156</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -438,7 +438,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>12102</v>
+        <v>12154</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -446,7 +446,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>12108</v>
+        <v>12152</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -454,7 +454,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>12107</v>
+        <v>12153</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -462,7 +462,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12104</v>
+        <v>12151</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -470,7 +470,7 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>12086</v>
+        <v>12079</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -478,7 +478,7 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <v>12092</v>
+        <v>12119</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -486,7 +486,7 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>12097</v>
+        <v>12116</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -494,7 +494,7 @@
         <v>4</v>
       </c>
       <c r="B10">
-        <v>12093</v>
+        <v>12104</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -502,7 +502,7 @@
         <v>4</v>
       </c>
       <c r="B11">
-        <v>12080</v>
+        <v>12086</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -510,7 +510,7 @@
         <v>4</v>
       </c>
       <c r="B12">
-        <v>12076</v>
+        <v>12092</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -518,7 +518,7 @@
         <v>4</v>
       </c>
       <c r="B13">
-        <v>12073</v>
+        <v>12076</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -526,7 +526,7 @@
         <v>4</v>
       </c>
       <c r="B14">
-        <v>12074</v>
+        <v>12073</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -534,7 +534,7 @@
         <v>4</v>
       </c>
       <c r="B15">
-        <v>12081</v>
+        <v>12074</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -542,7 +542,7 @@
         <v>4</v>
       </c>
       <c r="B16">
-        <v>12079</v>
+        <v>11977</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -550,7 +550,7 @@
         <v>4</v>
       </c>
       <c r="B17">
-        <v>11941</v>
+        <v>11984</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -558,7 +558,7 @@
         <v>4</v>
       </c>
       <c r="B18">
-        <v>12055</v>
+        <v>11956</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -566,7 +566,7 @@
         <v>4</v>
       </c>
       <c r="B19">
-        <v>11977</v>
+        <v>10137</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -574,7 +574,7 @@
         <v>4</v>
       </c>
       <c r="B20">
-        <v>11984</v>
+        <v>11906</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -582,7 +582,7 @@
         <v>4</v>
       </c>
       <c r="B21">
-        <v>11956</v>
+        <v>11740</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -590,7 +590,7 @@
         <v>4</v>
       </c>
       <c r="B22">
-        <v>10137</v>
+        <v>11462</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -598,7 +598,7 @@
         <v>4</v>
       </c>
       <c r="B23">
-        <v>11903</v>
+        <v>11449</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -606,7 +606,7 @@
         <v>4</v>
       </c>
       <c r="B24">
-        <v>11906</v>
+        <v>11620</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -614,7 +614,7 @@
         <v>4</v>
       </c>
       <c r="B25">
-        <v>11740</v>
+        <v>11339</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -622,7 +622,7 @@
         <v>4</v>
       </c>
       <c r="B26">
-        <v>11462</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -630,7 +630,7 @@
         <v>4</v>
       </c>
       <c r="B27">
-        <v>11449</v>
+        <v>7735</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -638,7 +638,7 @@
         <v>4</v>
       </c>
       <c r="B28">
-        <v>11620</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -646,7 +646,7 @@
         <v>4</v>
       </c>
       <c r="B29">
-        <v>11424</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -654,59 +654,11 @@
         <v>4</v>
       </c>
       <c r="B30">
-        <v>11339</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31">
-        <v>1421</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32">
-        <v>7735</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34">
-        <v>1271</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35">
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36">
         <v>8031</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>